--- a/doc/schematic/eeprom_bom.xlsx
+++ b/doc/schematic/eeprom_bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>器件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,7 +218,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
+    <t>https://detail.tmall.com/item.htm?id=41265140445&amp;ali_refid=a3_430583_1006:1109983619:N:8mhz????:e348492c9ac1a90cf2b9a6b0c393d98c&amp;ali_trackid=1_e348492c9ac1a90cf2b9a6b0c393d98c&amp;spm=a230r.1.14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单板数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.52.290c2d1fR5bMot&amp;id=37504754539&amp;ns=1&amp;abbucket=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG1117-3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=551893928675&amp;ali_refid=a3_430583_1006:1110050328:N:REG1117-3.3:bd6b7113302d55a6ff2387b2637deea5&amp;ali_trackid=1_bd6b7113302d55a6ff2387b2637deea5&amp;spm=a230r.1.14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=538788234383&amp;ali_refid=a3_430583_1006:1109983619:N:SP3232:daec2d9b86855bafbeaf34a2ccfefc5c&amp;ali_trackid=1_daec2d9b86855bafbeaf34a2ccfefc5c&amp;spm=a230r.1.14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP3232EEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-16538328900.32.181d3d6cS49BL2&amp;id=41268652899&amp;rn=a59880da1e45b00cc8d116f4f930ae54&amp;abbucket=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD823AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.79.339956e812TWSV&amp;id=533141929448&amp;ns=1&amp;abbucket=9#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407ZGT6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -627,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -848,6 +944,114 @@
       </c>
       <c r="G12" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="27">
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -863,9 +1067,15 @@
     <hyperlink ref="G9" r:id="rId8" location="detail"/>
     <hyperlink ref="G10" r:id="rId9"/>
     <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+    <hyperlink ref="G17" r:id="rId15"/>
+    <hyperlink ref="G18" r:id="rId16" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/doc/schematic/eeprom_bom.xlsx
+++ b/doc/schematic/eeprom_bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>器件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,94 @@
   </si>
   <si>
     <t>STM32F407ZGT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103M2S3CQE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.111.19067f147PZo3p&amp;id=563798053911&amp;ns=1&amp;abbucket=9#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16, R17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色环电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.85.5dec2370V0lZMy&amp;id=15103057577&amp;ns=1&amp;abbucket=9#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1K  1/4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c.w4002-11256346195.22.75e27b30ozNE1T&amp;id=15490509124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIAL-0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +442,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,10 +459,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -381,12 +503,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -396,6 +515,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,21 +829,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="61.875" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -725,333 +863,548 @@
       <c r="F1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27">
-      <c r="B2" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" t="s">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" t="s">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" t="s">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
-      <c r="B9" t="s">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54">
-      <c r="B10" t="s">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
-      <c r="B11" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" t="s">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" t="s">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" t="s">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27">
-      <c r="B15" t="s">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="1:7" ht="27">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1073,9 +1426,12 @@
     <hyperlink ref="G16" r:id="rId14"/>
     <hyperlink ref="G17" r:id="rId15"/>
     <hyperlink ref="G18" r:id="rId16" location="detail"/>
+    <hyperlink ref="G19" r:id="rId17" location="detail"/>
+    <hyperlink ref="G22" r:id="rId18" location="detail"/>
+    <hyperlink ref="G23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId20"/>
 </worksheet>
 </file>
 
